--- a/boxes/fpgas/NB3_hindbrain/libraries/parts/FPGA_ICE40UP5K-SG48I/FPGA_ICE40UP5K-SG48I.xlsx
+++ b/boxes/fpgas/NB3_hindbrain/libraries/parts/FPGA_ICE40UP5K-SG48I/FPGA_ICE40UP5K-SG48I.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="133">
   <si>
     <t xml:space="preserve"># Pin Out For iCE5UP5K (iCE40 UltraPlus - 5K)</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t xml:space="preserve">*SG48 GND is connected to package paddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V</t>
   </si>
 </sst>
 </file>
@@ -640,176 +646,168 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,22 +887,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:DV88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,376 +926,406 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="5"/>
-      <c r="CI5" s="5"/>
-      <c r="CJ5" s="5"/>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="5"/>
-      <c r="CP5" s="5"/>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="5"/>
-      <c r="CS5" s="5"/>
-      <c r="CT5" s="5"/>
-      <c r="CU5" s="5"/>
-      <c r="CV5" s="5"/>
-      <c r="CW5" s="5"/>
-      <c r="CX5" s="5"/>
-      <c r="CY5" s="5"/>
-      <c r="CZ5" s="5"/>
-      <c r="DA5" s="5"/>
-      <c r="DB5" s="5"/>
-      <c r="DC5" s="5"/>
-      <c r="DD5" s="5"/>
-      <c r="DE5" s="5"/>
-      <c r="DF5" s="5"/>
-      <c r="DG5" s="5"/>
-      <c r="DH5" s="5"/>
-      <c r="DI5" s="5"/>
-      <c r="DJ5" s="5"/>
-      <c r="DK5" s="5"/>
-      <c r="DL5" s="5"/>
-      <c r="DM5" s="5"/>
-      <c r="DN5" s="5"/>
-      <c r="DO5" s="5"/>
-      <c r="DP5" s="5"/>
-      <c r="DQ5" s="5"/>
-      <c r="DR5" s="5"/>
-      <c r="DS5" s="5"/>
-      <c r="DT5" s="5"/>
-      <c r="DU5" s="5"/>
-      <c r="DV5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6"/>
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
+      <c r="CN5" s="6"/>
+      <c r="CO5" s="6"/>
+      <c r="CP5" s="6"/>
+      <c r="CQ5" s="6"/>
+      <c r="CR5" s="6"/>
+      <c r="CS5" s="6"/>
+      <c r="CT5" s="6"/>
+      <c r="CU5" s="6"/>
+      <c r="CV5" s="6"/>
+      <c r="CW5" s="6"/>
+      <c r="CX5" s="6"/>
+      <c r="CY5" s="6"/>
+      <c r="CZ5" s="6"/>
+      <c r="DA5" s="6"/>
+      <c r="DB5" s="6"/>
+      <c r="DC5" s="6"/>
+      <c r="DD5" s="6"/>
+      <c r="DE5" s="6"/>
+      <c r="DF5" s="6"/>
+      <c r="DG5" s="6"/>
+      <c r="DH5" s="6"/>
+      <c r="DI5" s="6"/>
+      <c r="DJ5" s="6"/>
+      <c r="DK5" s="6"/>
+      <c r="DL5" s="6"/>
+      <c r="DM5" s="6"/>
+      <c r="DN5" s="6"/>
+      <c r="DO5" s="6"/>
+      <c r="DP5" s="6"/>
+      <c r="DQ5" s="6"/>
+      <c r="DR5" s="6"/>
+      <c r="DS5" s="6"/>
+      <c r="DT5" s="6"/>
+      <c r="DU5" s="6"/>
+      <c r="DV5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="11" t="n">
         <v>46</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="16" t="n">
         <v>47</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="16" t="n">
         <v>44</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="15" t="n">
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="16" t="n">
         <v>48</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="15" t="n">
+      <c r="E10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="16" t="n">
         <v>45</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="15" t="n">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16" t="n">
         <v>2</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="15" t="n">
+      <c r="E12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="16" t="n">
         <v>4</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="16" t="n">
         <v>3</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19" t="n">
+      <c r="C16" s="20" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="21" t="n">
         <v>8</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1305,934 +1333,1092 @@
       <c r="A18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="21" t="n">
         <v>7</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="21" t="n">
         <v>6</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="21" t="n">
         <v>9</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="C21" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="21" t="n">
         <v>10</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="21" t="n">
         <v>11</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="21" t="n">
         <v>12</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="21" t="n">
         <v>21</v>
       </c>
+      <c r="G24" s="22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="15" t="n">
+      <c r="F25" s="16" t="n">
         <v>13</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="15" t="n">
+      <c r="F26" s="16" t="n">
         <v>20</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="15" t="n">
+      <c r="C27" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="16" t="n">
         <v>19</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="15" t="n">
+      <c r="C28" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="16" t="n">
         <v>18</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="F29" s="16" t="n">
         <v>14</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F30" s="16" t="n">
         <v>17</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="15" t="n">
+      <c r="F31" s="16" t="n">
         <v>15</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
+      <c r="C32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="15" t="n">
+      <c r="F32" s="16" t="n">
         <v>16</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="15" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="15" t="n">
+      <c r="F33" s="16" t="n">
         <v>29</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="15" t="n">
+      <c r="F34" s="16" t="n">
         <v>25</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="15" t="n">
-        <v>23</v>
+      <c r="F35" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="15" t="n">
+      <c r="E36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="16" t="n">
         <v>27</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="15" t="n">
+      <c r="E37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="16" t="n">
         <v>26</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="15" t="n">
+      <c r="C38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="16" t="n">
         <v>28</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="14" t="s">
+      <c r="C39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="15" t="n">
+      <c r="E39" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="16" t="n">
         <v>31</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="C40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="15" t="n">
+      <c r="E40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="16" t="n">
         <v>32</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="14" t="s">
+      <c r="C41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="15" t="n">
+      <c r="E41" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="16" t="n">
         <v>34</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="15" t="n">
+      <c r="E42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="16" t="n">
         <v>37</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
+      <c r="C43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="15" t="n">
+      <c r="F43" s="16" t="n">
         <v>35</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15" t="s">
+      <c r="C44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="15" t="n">
+      <c r="E45" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="16" t="n">
         <v>36</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="15" t="n">
+      <c r="E46" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="16" t="n">
         <v>43</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="14" t="s">
+      <c r="C47" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="15" t="n">
+      <c r="E47" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="16" t="n">
         <v>38</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="14" t="s">
+      <c r="C48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="15" t="n">
+      <c r="E48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="16" t="n">
         <v>42</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="15" t="s">
+      <c r="C49" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="15" t="n">
+      <c r="F49" s="16" t="n">
         <v>41</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="15" t="s">
+      <c r="C50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="15" t="n">
+      <c r="F50" s="16" t="n">
         <v>40</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="15" t="s">
+      <c r="C51" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="15" t="n">
+      <c r="F51" s="16" t="n">
         <v>39</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="15" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="15" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="34" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="15" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="15" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="15" t="n">
+      <c r="F55" s="16" t="n">
         <v>5</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="15" t="n">
+      <c r="D56" s="14"/>
+      <c r="E56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="16" t="n">
         <v>30</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="15" t="s">
+      <c r="C57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="15" t="n">
+      <c r="F57" s="16" t="n">
         <v>33</v>
       </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="27"/>
-      <c r="E58" s="15" t="s">
+      <c r="C58" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="15" t="n">
+      <c r="F58" s="16" t="n">
         <v>22</v>
       </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="30" t="n">
+      <c r="C59" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="15" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="15" t="n">
-        <v>1</v>
+      <c r="F59" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39" t="s">
+      <c r="D60" s="37"/>
+      <c r="E60" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="39" t="n">
+      <c r="F60" s="38" t="n">
         <v>24</v>
       </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="0" t="n">
+        <f aca="false">SUM(G6:G60)</f>
+        <v>32</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <f aca="false">SUM(H6:H60)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="42"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="H62" s="0" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="6"/>
+      <c r="H63" s="0" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="42"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="6"/>
+      <c r="H64" s="0" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="6"/>
+      <c r="H65" s="0" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="42"/>
-      <c r="B66" s="41"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="42"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="42"/>
-      <c r="B68" s="41"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="42"/>
-      <c r="B69" s="41"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="42"/>
-      <c r="B70" s="41"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="42"/>
-      <c r="B71" s="41"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="42"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="42"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="42"/>
-      <c r="B76" s="41"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42"/>
-      <c r="B77" s="41"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="42"/>
-      <c r="B78" s="41"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="42"/>
-      <c r="B79" s="41"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="42"/>
-      <c r="B80" s="41"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="42"/>
-      <c r="B81" s="41"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="42"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="42"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="42"/>
-      <c r="B84" s="41"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="42"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="42"/>
-      <c r="B86" s="41"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="42"/>
-      <c r="B87" s="41"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="42"/>
-      <c r="B88" s="41"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2241,7 +2427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2254,8 +2440,8 @@
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
